--- a/my_test_temp/测试导出指定对象并删除指定列.xlsx
+++ b/my_test_temp/测试导出指定对象并删除指定列.xlsx
@@ -415,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -466,7 +466,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" rgb="4F81BD"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
@@ -521,24 +521,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -693,9 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1067,10 +1047,10 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="1">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="1">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1078,10 +1058,10 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="1">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="1">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/my_test_temp/测试导出指定对象并删除指定列.xlsx
+++ b/my_test_temp/测试导出指定对象并删除指定列.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17910" windowHeight="4215"/>
+    <workbookView windowWidth="16605" windowHeight="4200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:C13"/>
+  <oleSize ref="A1:N9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+  <si>
+    <t>头像图片</t>
+  </si>
   <si>
     <t>编号</t>
   </si>
@@ -31,6 +34,9 @@
     <t>工资</t>
   </si>
   <si>
+    <t>${headImage}</t>
+  </si>
+  <si>
     <t>${no}</t>
   </si>
   <si>
@@ -43,19 +49,52 @@
     <t>${salary}</t>
   </si>
   <si>
+    <t>资金</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>养老金额</t>
+  </si>
+  <si>
+    <t>公积金</t>
+  </si>
+  <si>
+    <t>${oldSalary}</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>NO_1</t>
+  </si>
+  <si>
     <t>ssssss111</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
+    <t>NO_2</t>
+  </si>
+  <si>
     <t>ssssss222</t>
   </si>
   <si>
     <t>22</t>
+  </si>
+  <si>
+    <t>文本数据测试333</t>
+  </si>
+  <si>
+    <t>NO_3</t>
+  </si>
+  <si>
+    <t>ssssss333</t>
+  </si>
+  <si>
+    <t>333</t>
   </si>
 </sst>
 </file>
@@ -77,14 +116,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -92,60 +123,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,11 +169,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,44 +259,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -230,6 +269,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -242,25 +293,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,37 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,97 +383,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +460,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,6 +498,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,7 +545,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,54 +560,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -529,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,138 +580,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -735,6 +777,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1219200" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1219200" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1024,15 +1147,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.375" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1042,47 +1168,103 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" ht="101.0" customHeight="true">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="101.0" customHeight="true">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="101.0" customHeight="true">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" customWidth="true" width="13.625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/my_test_temp/测试导出指定对象并删除指定列.xlsx
+++ b/my_test_temp/测试导出指定对象并删除指定列.xlsx
@@ -156,7 +156,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -194,7 +194,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -232,7 +232,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -270,7 +270,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -308,7 +308,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -346,7 +346,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -384,7 +384,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -422,7 +422,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -460,7 +460,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -498,7 +498,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -536,7 +536,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -574,7 +574,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -612,7 +612,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -650,7 +650,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -688,7 +688,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -726,7 +726,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -764,7 +764,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -802,7 +802,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -840,7 +840,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -878,7 +878,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>

--- a/my_test_temp/测试导出指定对象并删除指定列.xlsx
+++ b/my_test_temp/测试导出指定对象并删除指定列.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -82,8 +82,22 @@
       <main:charset val="134"/>
       <main:scheme val="minor"/>
     </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,7 +106,37 @@
     </fill>
     <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:patternFill patternType="solid">
+        <main:fgColor theme="3" tint="0.6"/>
+        <main:bgColor indexed="64"/>
+      </main:patternFill>
+    </fill>
+    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:patternFill patternType="solid">
+        <main:fgColor theme="4" tint="-0.25"/>
+        <main:bgColor indexed="64"/>
+      </main:patternFill>
+    </fill>
+    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:patternFill patternType="solid">
+        <main:fgColor theme="4" tint="0.6"/>
+        <main:bgColor indexed="64"/>
+      </main:patternFill>
+    </fill>
+    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:patternFill patternType="solid">
+        <main:fgColor theme="3" tint="0.4"/>
+        <main:bgColor indexed="64"/>
+      </main:patternFill>
+    </fill>
+    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:patternFill patternType="solid">
         <main:fgColor rgb="FFFFFF00"/>
+        <main:bgColor indexed="64"/>
+      </main:patternFill>
+    </fill>
+    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:patternFill patternType="solid">
+        <main:fgColor theme="3" tint="0.8"/>
         <main:bgColor indexed="64"/>
       </main:patternFill>
     </fill>
@@ -124,15 +168,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
@@ -144,10 +188,16 @@
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -209,6 +259,7 @@
     <col min="2" max="2" width="16.125" customWidth="true"/>
     <col min="3" max="3" width="19.125" customWidth="true"/>
     <col min="4" max="4" width="12.375" customWidth="true"/>
+    <col min="5" max="5" width="21.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="true" ht="14.25">
@@ -232,444 +283,549 @@
           <t>年龄</t>
         </is>
       </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>工资</t>
+        </is>
+      </c>
     </row>
     <row r="2" customHeight="true" ht="101.0">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
         <is>
           <t>NO_0</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>ssssss_0</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E2" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="3" customHeight="true" ht="101.0">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>NO_1</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>ssssss_1</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E3" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="4" customHeight="true" ht="101.0">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>NO_2</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>ssssss_2</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="5" customHeight="true" ht="101.0">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
         <is>
           <t>NO_3</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>ssssss_3</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="6" customHeight="true" ht="101.0">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>NO_4</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="8" t="inlineStr">
         <is>
           <t>ssssss_4</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E6" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="7" customHeight="true" ht="101.0">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
         <is>
           <t>NO_5</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>ssssss_5</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E7" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="8" customHeight="true" ht="101.0">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
         <is>
           <t>NO_6</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>ssssss_6</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="9" customHeight="true" ht="101.0">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
         <is>
           <t>NO_7</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>ssssss_7</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="10" customHeight="true" ht="101.0">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>NO_8</t>
         </is>
       </c>
-      <c r="C10" s="7" t="inlineStr">
+      <c r="C10" s="8" t="inlineStr">
         <is>
           <t>ssssss_8</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="11" customHeight="true" ht="101.0">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>NO_9</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>ssssss_9</t>
         </is>
       </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E11" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="12" customHeight="true" ht="101.0">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
         <is>
           <t>NO_10</t>
         </is>
       </c>
-      <c r="C12" s="7" t="inlineStr">
+      <c r="C12" s="8" t="inlineStr">
         <is>
           <t>ssssss_10</t>
         </is>
       </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="13" customHeight="true" ht="101.0">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
         <is>
           <t>NO_11</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C13" s="8" t="inlineStr">
         <is>
           <t>ssssss_11</t>
         </is>
       </c>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="14" customHeight="true" ht="101.0">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
         <is>
           <t>NO_12</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr">
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>ssssss_12</t>
         </is>
       </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="15" customHeight="true" ht="101.0">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B15" s="6" t="inlineStr">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
         <is>
           <t>NO_13</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="C15" s="8" t="inlineStr">
         <is>
           <t>ssssss_13</t>
         </is>
       </c>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="16" customHeight="true" ht="101.0">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B16" s="6" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>NO_14</t>
         </is>
       </c>
-      <c r="C16" s="7" t="inlineStr">
+      <c r="C16" s="8" t="inlineStr">
         <is>
           <t>ssssss_14</t>
         </is>
       </c>
-      <c r="D16" s="8" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="17" customHeight="true" ht="101.0">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
         <is>
           <t>NO_15</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
+      <c r="C17" s="8" t="inlineStr">
         <is>
           <t>ssssss_15</t>
         </is>
       </c>
-      <c r="D17" s="8" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="18" customHeight="true" ht="101.0">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
         <is>
           <t>NO_16</t>
         </is>
       </c>
-      <c r="C18" s="7" t="inlineStr">
+      <c r="C18" s="8" t="inlineStr">
         <is>
           <t>ssssss_16</t>
         </is>
       </c>
-      <c r="D18" s="8" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="D18" s="9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E18" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="19" customHeight="true" ht="101.0">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B19" s="7" t="inlineStr">
         <is>
           <t>NO_17</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
+      <c r="C19" s="8" t="inlineStr">
         <is>
           <t>ssssss_17</t>
         </is>
       </c>
-      <c r="D19" s="8" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E19" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="20" customHeight="true" ht="101.0">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B20" s="7" t="inlineStr">
         <is>
           <t>NO_18</t>
         </is>
       </c>
-      <c r="C20" s="7" t="inlineStr">
+      <c r="C20" s="8" t="inlineStr">
         <is>
           <t>ssssss_18</t>
         </is>
       </c>
-      <c r="D20" s="8" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E20" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="21" customHeight="true" ht="101.0">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B21" s="7" t="inlineStr">
         <is>
           <t>NO_19</t>
         </is>
       </c>
-      <c r="C21" s="7" t="inlineStr">
+      <c r="C21" s="8" t="inlineStr">
         <is>
           <t>ssssss_19</t>
         </is>
       </c>
-      <c r="D21" s="8" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E21" s="10" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/my_test_temp/测试导出指定对象并删除指定列.xlsx
+++ b/my_test_temp/测试导出指定对象并删除指定列.xlsx
@@ -26,70 +26,70 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="11"/>
       <main:color theme="1"/>
       <main:name val="宋体"/>
@@ -104,39 +104,39 @@
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
-    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <fill xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:patternFill patternType="solid">
-        <main:fgColor theme="3" tint="0.6"/>
+        <main:fgColor theme="3" tint="0.59999389629810485"/>
         <main:bgColor indexed="64"/>
       </main:patternFill>
     </fill>
-    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <fill xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:patternFill patternType="solid">
-        <main:fgColor theme="4" tint="-0.25"/>
+        <main:fgColor theme="4" tint="-0.249977111117893"/>
         <main:bgColor indexed="64"/>
       </main:patternFill>
     </fill>
-    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <fill xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:patternFill patternType="solid">
-        <main:fgColor theme="4" tint="0.6"/>
+        <main:fgColor theme="4" tint="0.59999389629810485"/>
         <main:bgColor indexed="64"/>
       </main:patternFill>
     </fill>
-    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <fill xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:patternFill patternType="solid">
-        <main:fgColor theme="3" tint="0.4"/>
+        <main:fgColor rgb="FFB8B2E4"/>
         <main:bgColor indexed="64"/>
       </main:patternFill>
     </fill>
-    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <fill xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:patternFill patternType="solid">
-        <main:fgColor rgb="FFFFFF00"/>
+        <main:fgColor rgb="FFFEF3F0"/>
         <main:bgColor indexed="64"/>
       </main:patternFill>
     </fill>
-    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <fill xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:patternFill patternType="solid">
-        <main:fgColor theme="3" tint="0.8"/>
+        <main:fgColor rgb="FFF7BFD3"/>
         <main:bgColor indexed="64"/>
       </main:patternFill>
     </fill>
@@ -149,7 +149,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:left style="medium">
         <main:color auto="1"/>
       </main:left>
@@ -170,34 +170,34 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -262,7 +262,7 @@
     <col min="5" max="5" width="21.625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="true" ht="14.25">
+    <row r="1" customHeight="true" ht="13.5">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>头像图片</t>
@@ -289,7 +289,7 @@
         </is>
       </c>
     </row>
-    <row r="2" customHeight="true" ht="101.0">
+    <row r="2" customHeight="true" ht="101.1">
       <c r="A2" s="6" t="inlineStr">
         <is>
           <t/>
@@ -316,7 +316,7 @@
         </is>
       </c>
     </row>
-    <row r="3" customHeight="true" ht="101.0">
+    <row r="3" customHeight="true" ht="101.1">
       <c r="A3" s="6" t="inlineStr">
         <is>
           <t/>
@@ -343,7 +343,7 @@
         </is>
       </c>
     </row>
-    <row r="4" customHeight="true" ht="101.0">
+    <row r="4" customHeight="true" ht="101.1">
       <c r="A4" s="6" t="inlineStr">
         <is>
           <t/>
@@ -370,7 +370,7 @@
         </is>
       </c>
     </row>
-    <row r="5" customHeight="true" ht="101.0">
+    <row r="5" customHeight="true" ht="101.1">
       <c r="A5" s="6" t="inlineStr">
         <is>
           <t/>
@@ -397,7 +397,7 @@
         </is>
       </c>
     </row>
-    <row r="6" customHeight="true" ht="101.0">
+    <row r="6" customHeight="true" ht="101.1">
       <c r="A6" s="6" t="inlineStr">
         <is>
           <t/>
@@ -424,7 +424,7 @@
         </is>
       </c>
     </row>
-    <row r="7" customHeight="true" ht="101.0">
+    <row r="7" customHeight="true" ht="101.1">
       <c r="A7" s="6" t="inlineStr">
         <is>
           <t/>
@@ -451,7 +451,7 @@
         </is>
       </c>
     </row>
-    <row r="8" customHeight="true" ht="101.0">
+    <row r="8" customHeight="true" ht="101.1">
       <c r="A8" s="6" t="inlineStr">
         <is>
           <t/>
@@ -478,7 +478,7 @@
         </is>
       </c>
     </row>
-    <row r="9" customHeight="true" ht="101.0">
+    <row r="9" customHeight="true" ht="101.1">
       <c r="A9" s="6" t="inlineStr">
         <is>
           <t/>
@@ -505,7 +505,7 @@
         </is>
       </c>
     </row>
-    <row r="10" customHeight="true" ht="101.0">
+    <row r="10" customHeight="true" ht="101.1">
       <c r="A10" s="6" t="inlineStr">
         <is>
           <t/>
@@ -532,7 +532,7 @@
         </is>
       </c>
     </row>
-    <row r="11" customHeight="true" ht="101.0">
+    <row r="11" customHeight="true" ht="101.1">
       <c r="A11" s="6" t="inlineStr">
         <is>
           <t/>
@@ -559,7 +559,7 @@
         </is>
       </c>
     </row>
-    <row r="12" customHeight="true" ht="101.0">
+    <row r="12" customHeight="true" ht="101.1">
       <c r="A12" s="6" t="inlineStr">
         <is>
           <t/>
@@ -586,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="13" customHeight="true" ht="101.0">
+    <row r="13" customHeight="true" ht="101.1">
       <c r="A13" s="6" t="inlineStr">
         <is>
           <t/>
@@ -613,7 +613,7 @@
         </is>
       </c>
     </row>
-    <row r="14" customHeight="true" ht="101.0">
+    <row r="14" customHeight="true" ht="101.1">
       <c r="A14" s="6" t="inlineStr">
         <is>
           <t/>
@@ -640,7 +640,7 @@
         </is>
       </c>
     </row>
-    <row r="15" customHeight="true" ht="101.0">
+    <row r="15" customHeight="true" ht="101.1">
       <c r="A15" s="6" t="inlineStr">
         <is>
           <t/>
@@ -667,7 +667,7 @@
         </is>
       </c>
     </row>
-    <row r="16" customHeight="true" ht="101.0">
+    <row r="16" customHeight="true" ht="101.1">
       <c r="A16" s="6" t="inlineStr">
         <is>
           <t/>
@@ -694,7 +694,7 @@
         </is>
       </c>
     </row>
-    <row r="17" customHeight="true" ht="101.0">
+    <row r="17" customHeight="true" ht="101.1">
       <c r="A17" s="6" t="inlineStr">
         <is>
           <t/>
@@ -721,7 +721,7 @@
         </is>
       </c>
     </row>
-    <row r="18" customHeight="true" ht="101.0">
+    <row r="18" customHeight="true" ht="101.1">
       <c r="A18" s="6" t="inlineStr">
         <is>
           <t/>
@@ -748,7 +748,7 @@
         </is>
       </c>
     </row>
-    <row r="19" customHeight="true" ht="101.0">
+    <row r="19" customHeight="true" ht="101.1">
       <c r="A19" s="6" t="inlineStr">
         <is>
           <t/>
@@ -775,7 +775,7 @@
         </is>
       </c>
     </row>
-    <row r="20" customHeight="true" ht="101.0">
+    <row r="20" customHeight="true" ht="101.1">
       <c r="A20" s="6" t="inlineStr">
         <is>
           <t/>
@@ -802,7 +802,7 @@
         </is>
       </c>
     </row>
-    <row r="21" customHeight="true" ht="101.0">
+    <row r="21" customHeight="true" ht="101.1">
       <c r="A21" s="6" t="inlineStr">
         <is>
           <t/>

--- a/my_test_temp/测试导出指定对象并删除指定列.xlsx
+++ b/my_test_temp/测试导出指定对象并删除指定列.xlsx
@@ -7,6 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId4" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -18,13 +20,69 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="19">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
     </font>
     <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="11"/>
@@ -168,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
@@ -198,6 +256,30 @@
       <main:alignment vertical="center"/>
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -247,6 +329,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
@@ -833,4 +923,500 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.0" customWidth="true"/>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="13.625" customWidth="true"/>
+    <col min="4" max="4" width="8.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="true" ht="13.5">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>资金</t>
+        </is>
+      </c>
+      <c r="B1" s="12" t="inlineStr">
+        <is>
+          <t>收入</t>
+        </is>
+      </c>
+      <c r="C1" s="13" t="inlineStr">
+        <is>
+          <t>养老金额</t>
+        </is>
+      </c>
+      <c r="D1" s="14" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customHeight="true" ht="13.5">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>NO_0</t>
+        </is>
+      </c>
+      <c r="B2" s="16" t="inlineStr">
+        <is>
+          <t>ssssss_0</t>
+        </is>
+      </c>
+      <c r="C2" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D2" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="3" customHeight="true" ht="13.5">
+      <c r="A3" s="15" t="inlineStr">
+        <is>
+          <t>NO_1</t>
+        </is>
+      </c>
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>ssssss_1</t>
+        </is>
+      </c>
+      <c r="C3" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D3" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="4" customHeight="true" ht="13.5">
+      <c r="A4" s="15" t="inlineStr">
+        <is>
+          <t>NO_2</t>
+        </is>
+      </c>
+      <c r="B4" s="16" t="inlineStr">
+        <is>
+          <t>ssssss_2</t>
+        </is>
+      </c>
+      <c r="C4" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D4" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="5" customHeight="true" ht="13.5">
+      <c r="A5" s="15" t="inlineStr">
+        <is>
+          <t>NO_3</t>
+        </is>
+      </c>
+      <c r="B5" s="16" t="inlineStr">
+        <is>
+          <t>ssssss_3</t>
+        </is>
+      </c>
+      <c r="C5" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D5" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="6" customHeight="true" ht="13.5">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>NO_4</t>
+        </is>
+      </c>
+      <c r="B6" s="16" t="inlineStr">
+        <is>
+          <t>ssssss_4</t>
+        </is>
+      </c>
+      <c r="C6" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D6" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="7" customHeight="true" ht="13.5">
+      <c r="A7" s="15" t="inlineStr">
+        <is>
+          <t>NO_5</t>
+        </is>
+      </c>
+      <c r="B7" s="16" t="inlineStr">
+        <is>
+          <t>ssssss_5</t>
+        </is>
+      </c>
+      <c r="C7" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D7" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="8" customHeight="true" ht="13.5">
+      <c r="A8" s="15" t="inlineStr">
+        <is>
+          <t>NO_6</t>
+        </is>
+      </c>
+      <c r="B8" s="16" t="inlineStr">
+        <is>
+          <t>ssssss_6</t>
+        </is>
+      </c>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D8" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="9" customHeight="true" ht="13.5">
+      <c r="A9" s="15" t="inlineStr">
+        <is>
+          <t>NO_7</t>
+        </is>
+      </c>
+      <c r="B9" s="16" t="inlineStr">
+        <is>
+          <t>ssssss_7</t>
+        </is>
+      </c>
+      <c r="C9" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D9" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="10" customHeight="true" ht="13.5">
+      <c r="A10" s="15" t="inlineStr">
+        <is>
+          <t>NO_8</t>
+        </is>
+      </c>
+      <c r="B10" s="16" t="inlineStr">
+        <is>
+          <t>ssssss_8</t>
+        </is>
+      </c>
+      <c r="C10" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D10" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="11" customHeight="true" ht="13.5">
+      <c r="A11" s="15" t="inlineStr">
+        <is>
+          <t>NO_9</t>
+        </is>
+      </c>
+      <c r="B11" s="16" t="inlineStr">
+        <is>
+          <t>ssssss_9</t>
+        </is>
+      </c>
+      <c r="C11" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D11" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="12" customHeight="true" ht="13.5">
+      <c r="A12" s="15" t="inlineStr">
+        <is>
+          <t>NO_10</t>
+        </is>
+      </c>
+      <c r="B12" s="16" t="inlineStr">
+        <is>
+          <t>ssssss_10</t>
+        </is>
+      </c>
+      <c r="C12" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D12" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="13" customHeight="true" ht="13.5">
+      <c r="A13" s="15" t="inlineStr">
+        <is>
+          <t>NO_11</t>
+        </is>
+      </c>
+      <c r="B13" s="16" t="inlineStr">
+        <is>
+          <t>ssssss_11</t>
+        </is>
+      </c>
+      <c r="C13" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D13" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="14" customHeight="true" ht="13.5">
+      <c r="A14" s="15" t="inlineStr">
+        <is>
+          <t>NO_12</t>
+        </is>
+      </c>
+      <c r="B14" s="16" t="inlineStr">
+        <is>
+          <t>ssssss_12</t>
+        </is>
+      </c>
+      <c r="C14" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D14" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="15" customHeight="true" ht="13.5">
+      <c r="A15" s="15" t="inlineStr">
+        <is>
+          <t>NO_13</t>
+        </is>
+      </c>
+      <c r="B15" s="16" t="inlineStr">
+        <is>
+          <t>ssssss_13</t>
+        </is>
+      </c>
+      <c r="C15" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D15" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="16" customHeight="true" ht="13.5">
+      <c r="A16" s="15" t="inlineStr">
+        <is>
+          <t>NO_14</t>
+        </is>
+      </c>
+      <c r="B16" s="16" t="inlineStr">
+        <is>
+          <t>ssssss_14</t>
+        </is>
+      </c>
+      <c r="C16" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D16" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="17" customHeight="true" ht="13.5">
+      <c r="A17" s="15" t="inlineStr">
+        <is>
+          <t>NO_15</t>
+        </is>
+      </c>
+      <c r="B17" s="16" t="inlineStr">
+        <is>
+          <t>ssssss_15</t>
+        </is>
+      </c>
+      <c r="C17" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D17" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="18" customHeight="true" ht="13.5">
+      <c r="A18" s="15" t="inlineStr">
+        <is>
+          <t>NO_16</t>
+        </is>
+      </c>
+      <c r="B18" s="16" t="inlineStr">
+        <is>
+          <t>ssssss_16</t>
+        </is>
+      </c>
+      <c r="C18" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D18" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="19" customHeight="true" ht="13.5">
+      <c r="A19" s="15" t="inlineStr">
+        <is>
+          <t>NO_17</t>
+        </is>
+      </c>
+      <c r="B19" s="16" t="inlineStr">
+        <is>
+          <t>ssssss_17</t>
+        </is>
+      </c>
+      <c r="C19" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D19" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="20" customHeight="true" ht="13.5">
+      <c r="A20" s="15" t="inlineStr">
+        <is>
+          <t>NO_18</t>
+        </is>
+      </c>
+      <c r="B20" s="16" t="inlineStr">
+        <is>
+          <t>ssssss_18</t>
+        </is>
+      </c>
+      <c r="C20" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D20" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="21" customHeight="true" ht="13.5">
+      <c r="A21" s="15" t="inlineStr">
+        <is>
+          <t>NO_19</t>
+        </is>
+      </c>
+      <c r="B21" s="16" t="inlineStr">
+        <is>
+          <t>ssssss_19</t>
+        </is>
+      </c>
+      <c r="C21" s="17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D21" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+</sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/my_test_temp/测试导出指定对象并删除指定列.xlsx
+++ b/my_test_temp/测试导出指定对象并删除指定列.xlsx
@@ -20,13 +20,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
     </font>
     <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="11"/>
@@ -226,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
@@ -243,22 +257,22 @@
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
@@ -276,10 +290,16 @@
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -326,6 +346,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1219200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -380,540 +438,552 @@
       </c>
     </row>
     <row r="2" customHeight="true" ht="101.1">
-      <c r="A2" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C2" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="3" customHeight="true" ht="101.1">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>NO_0</t>
         </is>
       </c>
-      <c r="C2" s="8" t="inlineStr">
+      <c r="C3" s="10" t="inlineStr">
         <is>
           <t>ssssss_0</t>
         </is>
       </c>
-      <c r="D2" s="9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E2" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" customHeight="true" ht="101.1">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="D3" s="11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E3" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="4" customHeight="true" ht="101.1">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
         <is>
           <t>NO_1</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>ssssss_1</t>
         </is>
       </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E3" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="4" customHeight="true" ht="101.1">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="D4" s="11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="5" customHeight="true" ht="101.1">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
         <is>
           <t>NO_2</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>ssssss_2</t>
         </is>
       </c>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E4" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="5" customHeight="true" ht="101.1">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="D5" s="11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E5" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="6" customHeight="true" ht="101.1">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>NO_3</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>ssssss_3</t>
         </is>
       </c>
-      <c r="D5" s="9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E5" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="6" customHeight="true" ht="101.1">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E6" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="7" customHeight="true" ht="101.1">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B7" s="9" t="inlineStr">
         <is>
           <t>NO_4</t>
         </is>
       </c>
-      <c r="C6" s="8" t="inlineStr">
+      <c r="C7" s="10" t="inlineStr">
         <is>
           <t>ssssss_4</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E6" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="7" customHeight="true" ht="101.1">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="D7" s="11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E7" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="8" customHeight="true" ht="101.1">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B8" s="9" t="inlineStr">
         <is>
           <t>NO_5</t>
         </is>
       </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>ssssss_5</t>
         </is>
       </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E7" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="8" customHeight="true" ht="101.1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
+      <c r="D8" s="11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E8" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="9" customHeight="true" ht="101.1">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>NO_6</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C9" s="10" t="inlineStr">
         <is>
           <t>ssssss_6</t>
         </is>
       </c>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E8" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="9" customHeight="true" ht="101.1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="D9" s="11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E9" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="10" customHeight="true" ht="101.1">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B10" s="9" t="inlineStr">
         <is>
           <t>NO_7</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>ssssss_7</t>
         </is>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="10" customHeight="true" ht="101.1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
+      <c r="D10" s="11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="11" customHeight="true" ht="101.1">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>NO_8</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>ssssss_8</t>
         </is>
       </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="11" customHeight="true" ht="101.1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E11" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="12" customHeight="true" ht="101.1">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>NO_9</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C12" s="10" t="inlineStr">
         <is>
           <t>ssssss_9</t>
         </is>
       </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E11" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="12" customHeight="true" ht="101.1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
+      <c r="D12" s="11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="13" customHeight="true" ht="101.1">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B13" s="9" t="inlineStr">
         <is>
           <t>NO_10</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C13" s="10" t="inlineStr">
         <is>
           <t>ssssss_10</t>
         </is>
       </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="13" customHeight="true" ht="101.1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="D13" s="11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E13" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="14" customHeight="true" ht="101.1">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B14" s="9" t="inlineStr">
         <is>
           <t>NO_11</t>
         </is>
       </c>
-      <c r="C13" s="8" t="inlineStr">
+      <c r="C14" s="10" t="inlineStr">
         <is>
           <t>ssssss_11</t>
         </is>
       </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="14" customHeight="true" ht="101.1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E14" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="15" customHeight="true" ht="101.1">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B15" s="9" t="inlineStr">
         <is>
           <t>NO_12</t>
         </is>
       </c>
-      <c r="C14" s="8" t="inlineStr">
+      <c r="C15" s="10" t="inlineStr">
         <is>
           <t>ssssss_12</t>
         </is>
       </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="15" customHeight="true" ht="101.1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="D15" s="11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E15" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="16" customHeight="true" ht="101.1">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B16" s="9" t="inlineStr">
         <is>
           <t>NO_13</t>
         </is>
       </c>
-      <c r="C15" s="8" t="inlineStr">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>ssssss_13</t>
         </is>
       </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="16" customHeight="true" ht="101.1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
+      <c r="D16" s="11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="17" customHeight="true" ht="101.1">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B17" s="9" t="inlineStr">
         <is>
           <t>NO_14</t>
         </is>
       </c>
-      <c r="C16" s="8" t="inlineStr">
+      <c r="C17" s="10" t="inlineStr">
         <is>
           <t>ssssss_14</t>
         </is>
       </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E16" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="17" customHeight="true" ht="101.1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B17" s="7" t="inlineStr">
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E17" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="18" customHeight="true" ht="101.1">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B18" s="9" t="inlineStr">
         <is>
           <t>NO_15</t>
         </is>
       </c>
-      <c r="C17" s="8" t="inlineStr">
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>ssssss_15</t>
         </is>
       </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E17" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="18" customHeight="true" ht="101.1">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
+      <c r="D18" s="11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E18" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="19" customHeight="true" ht="101.1">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B19" s="9" t="inlineStr">
         <is>
           <t>NO_16</t>
         </is>
       </c>
-      <c r="C18" s="8" t="inlineStr">
+      <c r="C19" s="10" t="inlineStr">
         <is>
           <t>ssssss_16</t>
         </is>
       </c>
-      <c r="D18" s="9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E18" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="19" customHeight="true" ht="101.1">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B19" s="7" t="inlineStr">
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E19" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="20" customHeight="true" ht="101.1">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B20" s="9" t="inlineStr">
         <is>
           <t>NO_17</t>
         </is>
       </c>
-      <c r="C19" s="8" t="inlineStr">
+      <c r="C20" s="10" t="inlineStr">
         <is>
           <t>ssssss_17</t>
         </is>
       </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E19" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="20" customHeight="true" ht="101.1">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B20" s="7" t="inlineStr">
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E20" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="21" customHeight="true" ht="101.1">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B21" s="9" t="inlineStr">
         <is>
           <t>NO_18</t>
         </is>
       </c>
-      <c r="C20" s="8" t="inlineStr">
+      <c r="C21" s="10" t="inlineStr">
         <is>
           <t>ssssss_18</t>
         </is>
       </c>
-      <c r="D20" s="9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E20" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="21" customHeight="true" ht="101.1">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B21" s="7" t="inlineStr">
+      <c r="D21" s="11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E21" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="22" customHeight="true" ht="101.1">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B22" s="9" t="inlineStr">
         <is>
           <t>NO_19</t>
         </is>
       </c>
-      <c r="C21" s="8" t="inlineStr">
+      <c r="C22" s="10" t="inlineStr">
         <is>
           <t>ssssss_19</t>
         </is>
       </c>
-      <c r="D21" s="9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E21" s="10" t="inlineStr">
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E22" s="12" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -940,462 +1010,462 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="true" ht="13.5">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="13" t="inlineStr">
         <is>
           <t>资金</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="14" t="inlineStr">
         <is>
           <t>收入</t>
         </is>
       </c>
-      <c r="C1" s="13" t="inlineStr">
+      <c r="C1" s="15" t="inlineStr">
         <is>
           <t>养老金额</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
+      <c r="D1" s="16" t="inlineStr">
         <is>
           <t>公积金</t>
         </is>
       </c>
     </row>
     <row r="2" customHeight="true" ht="13.5">
-      <c r="A2" s="15" t="inlineStr">
+      <c r="A2" s="17" t="inlineStr">
         <is>
           <t>NO_0</t>
         </is>
       </c>
-      <c r="B2" s="16" t="inlineStr">
+      <c r="B2" s="18" t="inlineStr">
         <is>
           <t>ssssss_0</t>
         </is>
       </c>
-      <c r="C2" s="17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D2" s="18" t="inlineStr">
+      <c r="C2" s="19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D2" s="20" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="3" customHeight="true" ht="13.5">
-      <c r="A3" s="15" t="inlineStr">
+      <c r="A3" s="17" t="inlineStr">
         <is>
           <t>NO_1</t>
         </is>
       </c>
-      <c r="B3" s="16" t="inlineStr">
+      <c r="B3" s="18" t="inlineStr">
         <is>
           <t>ssssss_1</t>
         </is>
       </c>
-      <c r="C3" s="17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="18" t="inlineStr">
+      <c r="C3" s="19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D3" s="20" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="4" customHeight="true" ht="13.5">
-      <c r="A4" s="15" t="inlineStr">
+      <c r="A4" s="17" t="inlineStr">
         <is>
           <t>NO_2</t>
         </is>
       </c>
-      <c r="B4" s="16" t="inlineStr">
+      <c r="B4" s="18" t="inlineStr">
         <is>
           <t>ssssss_2</t>
         </is>
       </c>
-      <c r="C4" s="17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="18" t="inlineStr">
+      <c r="C4" s="19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D4" s="20" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="5" customHeight="true" ht="13.5">
-      <c r="A5" s="15" t="inlineStr">
+      <c r="A5" s="17" t="inlineStr">
         <is>
           <t>NO_3</t>
         </is>
       </c>
-      <c r="B5" s="16" t="inlineStr">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>ssssss_3</t>
         </is>
       </c>
-      <c r="C5" s="17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="18" t="inlineStr">
+      <c r="C5" s="19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D5" s="20" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="6" customHeight="true" ht="13.5">
-      <c r="A6" s="15" t="inlineStr">
+      <c r="A6" s="17" t="inlineStr">
         <is>
           <t>NO_4</t>
         </is>
       </c>
-      <c r="B6" s="16" t="inlineStr">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>ssssss_4</t>
         </is>
       </c>
-      <c r="C6" s="17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="18" t="inlineStr">
+      <c r="C6" s="19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D6" s="20" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="7" customHeight="true" ht="13.5">
-      <c r="A7" s="15" t="inlineStr">
+      <c r="A7" s="17" t="inlineStr">
         <is>
           <t>NO_5</t>
         </is>
       </c>
-      <c r="B7" s="16" t="inlineStr">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>ssssss_5</t>
         </is>
       </c>
-      <c r="C7" s="17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="18" t="inlineStr">
+      <c r="C7" s="19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D7" s="20" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="8" customHeight="true" ht="13.5">
-      <c r="A8" s="15" t="inlineStr">
+      <c r="A8" s="17" t="inlineStr">
         <is>
           <t>NO_6</t>
         </is>
       </c>
-      <c r="B8" s="16" t="inlineStr">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>ssssss_6</t>
         </is>
       </c>
-      <c r="C8" s="17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="18" t="inlineStr">
+      <c r="C8" s="19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D8" s="20" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="9" customHeight="true" ht="13.5">
-      <c r="A9" s="15" t="inlineStr">
+      <c r="A9" s="17" t="inlineStr">
         <is>
           <t>NO_7</t>
         </is>
       </c>
-      <c r="B9" s="16" t="inlineStr">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>ssssss_7</t>
         </is>
       </c>
-      <c r="C9" s="17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="18" t="inlineStr">
+      <c r="C9" s="19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D9" s="20" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="10" customHeight="true" ht="13.5">
-      <c r="A10" s="15" t="inlineStr">
+      <c r="A10" s="17" t="inlineStr">
         <is>
           <t>NO_8</t>
         </is>
       </c>
-      <c r="B10" s="16" t="inlineStr">
+      <c r="B10" s="18" t="inlineStr">
         <is>
           <t>ssssss_8</t>
         </is>
       </c>
-      <c r="C10" s="17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="18" t="inlineStr">
+      <c r="C10" s="19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D10" s="20" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="11" customHeight="true" ht="13.5">
-      <c r="A11" s="15" t="inlineStr">
+      <c r="A11" s="17" t="inlineStr">
         <is>
           <t>NO_9</t>
         </is>
       </c>
-      <c r="B11" s="16" t="inlineStr">
+      <c r="B11" s="18" t="inlineStr">
         <is>
           <t>ssssss_9</t>
         </is>
       </c>
-      <c r="C11" s="17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="18" t="inlineStr">
+      <c r="C11" s="19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D11" s="20" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="12" customHeight="true" ht="13.5">
-      <c r="A12" s="15" t="inlineStr">
+      <c r="A12" s="17" t="inlineStr">
         <is>
           <t>NO_10</t>
         </is>
       </c>
-      <c r="B12" s="16" t="inlineStr">
+      <c r="B12" s="18" t="inlineStr">
         <is>
           <t>ssssss_10</t>
         </is>
       </c>
-      <c r="C12" s="17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="18" t="inlineStr">
+      <c r="C12" s="19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D12" s="20" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="13" customHeight="true" ht="13.5">
-      <c r="A13" s="15" t="inlineStr">
+      <c r="A13" s="17" t="inlineStr">
         <is>
           <t>NO_11</t>
         </is>
       </c>
-      <c r="B13" s="16" t="inlineStr">
+      <c r="B13" s="18" t="inlineStr">
         <is>
           <t>ssssss_11</t>
         </is>
       </c>
-      <c r="C13" s="17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="18" t="inlineStr">
+      <c r="C13" s="19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D13" s="20" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="14" customHeight="true" ht="13.5">
-      <c r="A14" s="15" t="inlineStr">
+      <c r="A14" s="17" t="inlineStr">
         <is>
           <t>NO_12</t>
         </is>
       </c>
-      <c r="B14" s="16" t="inlineStr">
+      <c r="B14" s="18" t="inlineStr">
         <is>
           <t>ssssss_12</t>
         </is>
       </c>
-      <c r="C14" s="17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="18" t="inlineStr">
+      <c r="C14" s="19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D14" s="20" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="15" customHeight="true" ht="13.5">
-      <c r="A15" s="15" t="inlineStr">
+      <c r="A15" s="17" t="inlineStr">
         <is>
           <t>NO_13</t>
         </is>
       </c>
-      <c r="B15" s="16" t="inlineStr">
+      <c r="B15" s="18" t="inlineStr">
         <is>
           <t>ssssss_13</t>
         </is>
       </c>
-      <c r="C15" s="17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="18" t="inlineStr">
+      <c r="C15" s="19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D15" s="20" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="16" customHeight="true" ht="13.5">
-      <c r="A16" s="15" t="inlineStr">
+      <c r="A16" s="17" t="inlineStr">
         <is>
           <t>NO_14</t>
         </is>
       </c>
-      <c r="B16" s="16" t="inlineStr">
+      <c r="B16" s="18" t="inlineStr">
         <is>
           <t>ssssss_14</t>
         </is>
       </c>
-      <c r="C16" s="17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="18" t="inlineStr">
+      <c r="C16" s="19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D16" s="20" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="17" customHeight="true" ht="13.5">
-      <c r="A17" s="15" t="inlineStr">
+      <c r="A17" s="17" t="inlineStr">
         <is>
           <t>NO_15</t>
         </is>
       </c>
-      <c r="B17" s="16" t="inlineStr">
+      <c r="B17" s="18" t="inlineStr">
         <is>
           <t>ssssss_15</t>
         </is>
       </c>
-      <c r="C17" s="17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="18" t="inlineStr">
+      <c r="C17" s="19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D17" s="20" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="18" customHeight="true" ht="13.5">
-      <c r="A18" s="15" t="inlineStr">
+      <c r="A18" s="17" t="inlineStr">
         <is>
           <t>NO_16</t>
         </is>
       </c>
-      <c r="B18" s="16" t="inlineStr">
+      <c r="B18" s="18" t="inlineStr">
         <is>
           <t>ssssss_16</t>
         </is>
       </c>
-      <c r="C18" s="17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="18" t="inlineStr">
+      <c r="C18" s="19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D18" s="20" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="19" customHeight="true" ht="13.5">
-      <c r="A19" s="15" t="inlineStr">
+      <c r="A19" s="17" t="inlineStr">
         <is>
           <t>NO_17</t>
         </is>
       </c>
-      <c r="B19" s="16" t="inlineStr">
+      <c r="B19" s="18" t="inlineStr">
         <is>
           <t>ssssss_17</t>
         </is>
       </c>
-      <c r="C19" s="17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="18" t="inlineStr">
+      <c r="C19" s="19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D19" s="20" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="20" customHeight="true" ht="13.5">
-      <c r="A20" s="15" t="inlineStr">
+      <c r="A20" s="17" t="inlineStr">
         <is>
           <t>NO_18</t>
         </is>
       </c>
-      <c r="B20" s="16" t="inlineStr">
+      <c r="B20" s="18" t="inlineStr">
         <is>
           <t>ssssss_18</t>
         </is>
       </c>
-      <c r="C20" s="17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="18" t="inlineStr">
+      <c r="C20" s="19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D20" s="20" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="21" customHeight="true" ht="13.5">
-      <c r="A21" s="15" t="inlineStr">
+      <c r="A21" s="17" t="inlineStr">
         <is>
           <t>NO_19</t>
         </is>
       </c>
-      <c r="B21" s="16" t="inlineStr">
+      <c r="B21" s="18" t="inlineStr">
         <is>
           <t>ssssss_19</t>
         </is>
       </c>
-      <c r="C21" s="17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="18" t="inlineStr">
+      <c r="C21" s="19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D21" s="20" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/my_test_temp/测试导出指定对象并删除指定列.xlsx
+++ b/my_test_temp/测试导出指定对象并删除指定列.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -997,7 +997,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
